--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t xml:space="preserve">TAS SUMMARY  </t>
   </si>
@@ -192,16 +192,16 @@
     </r>
   </si>
   <si>
-    <t>7141/100249</t>
-  </si>
-  <si>
     <t>1 February 2018 to 31 May 2018</t>
   </si>
   <si>
     <t>Computing</t>
   </si>
   <si>
-    <t>Test Test Test</t>
+    <t>new name 4</t>
+  </si>
+  <si>
+    <t>test5678910</t>
   </si>
   <si>
     <t>0.6</t>
@@ -216,10 +216,16 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>0.55</t>
+  </si>
+  <si>
     <t>0.62</t>
   </si>
   <si>
     <t>0.4</t>
+  </si>
+  <si>
+    <t>3.5700000000000003</t>
   </si>
   <si>
     <t>13.0</t>
@@ -524,57 +530,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,6 +603,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,30 +933,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="28.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" hidden="true" style="5" width="22.85546875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="47" width="7.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="47" width="7.42578125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="47" width="8.5703125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="47" width="7.7109375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="47" width="11.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="47" width="11.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="47" width="10.85546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="47" width="11.42578125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="47" width="14.85546875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="47" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="47" width="11.28515625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="47" width="11.28515625" collapsed="false"/>
-    <col min="15" max="17" customWidth="true" style="47" width="14.7109375" collapsed="false"/>
-    <col min="18" max="20" customWidth="true" style="47" width="14.85546875" collapsed="false"/>
-    <col min="21" max="23" customWidth="true" style="47" width="14.7109375" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" style="47" width="10.5703125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="21.85546875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="7.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="7.42578125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="8.5703125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="7.7109375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="11.0" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="30" width="11.28515625" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="10.85546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="11.42578125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="30" width="14.85546875" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="30" width="11.28515625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="30" width="11.28515625" collapsed="false"/>
+    <col min="15" max="17" customWidth="true" style="30" width="14.7109375" collapsed="false"/>
+    <col min="18" max="20" customWidth="true" style="30" width="14.85546875" collapsed="false"/>
+    <col min="21" max="23" customWidth="true" style="30" width="14.7109375" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" style="30" width="10.5703125" collapsed="false"/>
     <col min="25" max="25" customWidth="true" style="5" width="2.0" collapsed="false"/>
     <col min="26" max="26" customWidth="true" style="5" width="12.0" collapsed="false"/>
     <col min="27" max="27" style="5" width="12.7109375" collapsed="false"/>
@@ -2698,17 +2704,17 @@
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2742,7 +2748,7 @@
     <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2778,17 +2784,17 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2845,1217 +2851,1173 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="12" t="s">
+      <c r="AC7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AD7" s="13"/>
+      <c r="AD7" s="37"/>
     </row>
-    <row r="8" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="15" t="s">
+      <c r="S8" s="45"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:34" s="35" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:34" s="18" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="S9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="29" t="s">
+      <c r="U9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="29" t="s">
+      <c r="V9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="29" t="s">
+      <c r="W9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="30" t="s">
+      <c r="X9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="32" t="s">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" s="33" t="s">
+      <c r="AA9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="34" t="s">
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AD9" s="34" t="s">
+      <c r="AD9" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="F10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="G10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="I10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="J10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="K10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="M10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="N10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="P10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="38" t="s">
+      <c r="Q10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="R10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="T10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="38" t="s">
+      <c r="U10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="U10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="X10" s="38"/>
-      <c r="Z10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" s="40"/>
+      <c r="W10" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="23" t="n">
+        <v>1.55</v>
+      </c>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
     </row>
     <row r="11" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36">
-        <v>6327</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="40"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
     </row>
     <row r="12" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36">
-        <v>100331</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
     </row>
     <row r="13" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36">
-        <v>5760</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="40"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
     </row>
     <row r="14" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="40"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
     </row>
     <row r="15" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36">
-        <v>101724</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="40"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="21"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
     </row>
     <row r="16" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36">
-        <v>101165</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="40"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
     </row>
     <row r="17" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36">
-        <v>102480</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="40"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
     </row>
     <row r="18" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36">
-        <v>4466</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="40"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="23"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
     </row>
     <row r="19" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36">
-        <v>3101</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="40"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="23"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
     </row>
     <row r="20" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36">
-        <v>101040</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="40"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
     </row>
     <row r="21" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36">
-        <v>100788</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="40"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
     </row>
     <row r="22" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36">
-        <v>3958</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="40"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
     </row>
     <row r="23" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36">
-        <v>2984</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="40"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
     </row>
     <row r="24" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36">
-        <v>102777</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="40"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
     </row>
     <row r="25" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36">
-        <v>100728</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="40"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
     </row>
     <row r="26" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36">
-        <v>3478</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="40"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
     </row>
     <row r="27" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36">
-        <v>100057</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="40"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
     </row>
     <row r="28" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36">
-        <v>4037</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38">
-        <f t="shared" ref="X11:X34" si="0">SUM(C28:W28)</f>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21">
+        <f t="shared" ref="X28:X34" si="0">SUM(C28:W28)</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="39">
+      <c r="Z28" s="22">
         <v>5</v>
       </c>
-      <c r="AA28" s="40">
-        <f t="shared" ref="AA11:AA34" si="1">O28+P28+S28</f>
+      <c r="AA28" s="23">
+        <f t="shared" ref="AA28:AA34" si="1">O28+P28+S28</f>
         <v>0</v>
       </c>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="41" t="s">
+      <c r="AC28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD28" s="41"/>
+      <c r="AD28" s="24"/>
     </row>
     <row r="29" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36">
-        <v>100313</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="40">
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="41" t="s">
+      <c r="AC29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AD29" s="41"/>
+      <c r="AD29" s="24"/>
     </row>
     <row r="30" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36">
-        <v>7142</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="39">
+      <c r="Z30" s="22">
         <v>2</v>
       </c>
-      <c r="AA30" s="40">
+      <c r="AA30" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="41" t="s">
+      <c r="AC30" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD30" s="41"/>
+      <c r="AD30" s="24"/>
     </row>
     <row r="31" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36">
-        <v>100553</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="39">
+      <c r="Z31" s="22">
         <v>1</v>
       </c>
-      <c r="AA31" s="40">
+      <c r="AA31" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB31" s="2"/>
-      <c r="AC31" s="41" t="s">
+      <c r="AC31" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD31" s="41"/>
+      <c r="AD31" s="24"/>
     </row>
     <row r="32" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36">
-        <v>5826</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="39">
+      <c r="Z32" s="22">
         <v>1</v>
       </c>
-      <c r="AA32" s="40">
+      <c r="AA32" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="41" t="s">
+      <c r="AC32" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD32" s="41"/>
+      <c r="AD32" s="24"/>
     </row>
     <row r="33" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36">
-        <v>101569</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21">
         <v>0.05</v>
       </c>
-      <c r="X33" s="38">
+      <c r="X33" s="21">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z33" s="39">
+      <c r="Z33" s="22">
         <v>2</v>
       </c>
-      <c r="AA33" s="40">
+      <c r="AA33" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="41" t="s">
+      <c r="AC33" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD33" s="41"/>
+      <c r="AD33" s="24"/>
     </row>
     <row r="34" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36">
-        <v>3647</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21">
         <v>0.05</v>
       </c>
-      <c r="X34" s="38">
+      <c r="X34" s="21">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z34" s="39">
+      <c r="Z34" s="22">
         <v>2</v>
       </c>
-      <c r="AA34" s="40">
+      <c r="AA34" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="41" t="s">
+      <c r="AC34" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD34" s="41"/>
+      <c r="AD34" s="24"/>
     </row>
     <row r="35" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="45"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="28"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
     </row>
     <row r="36" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="45"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="28"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
     </row>
     <row r="37" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="45"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="28"/>
       <c r="AB37" s="2"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
     </row>
     <row r="38" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="45"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="28"/>
       <c r="AB38" s="2"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:V8"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:V8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC10:AC38 JY10:JY38 TU10:TU38 ADQ10:ADQ38 ANM10:ANM38 AXI10:AXI38 BHE10:BHE38 BRA10:BRA38 CAW10:CAW38 CKS10:CKS38 CUO10:CUO38 DEK10:DEK38 DOG10:DOG38 DYC10:DYC38 EHY10:EHY38 ERU10:ERU38 FBQ10:FBQ38 FLM10:FLM38 FVI10:FVI38 GFE10:GFE38 GPA10:GPA38 GYW10:GYW38 HIS10:HIS38 HSO10:HSO38 ICK10:ICK38 IMG10:IMG38 IWC10:IWC38 JFY10:JFY38 JPU10:JPU38 JZQ10:JZQ38 KJM10:KJM38 KTI10:KTI38 LDE10:LDE38 LNA10:LNA38 LWW10:LWW38 MGS10:MGS38 MQO10:MQO38 NAK10:NAK38 NKG10:NKG38 NUC10:NUC38 ODY10:ODY38 ONU10:ONU38 OXQ10:OXQ38 PHM10:PHM38 PRI10:PRI38 QBE10:QBE38 QLA10:QLA38 QUW10:QUW38 RES10:RES38 ROO10:ROO38 RYK10:RYK38 SIG10:SIG38 SSC10:SSC38 TBY10:TBY38 TLU10:TLU38 TVQ10:TVQ38 UFM10:UFM38 UPI10:UPI38 UZE10:UZE38 VJA10:VJA38 VSW10:VSW38 WCS10:WCS38 WMO10:WMO38 WWK10:WWK38 AC65546:AC65574 JY65546:JY65574 TU65546:TU65574 ADQ65546:ADQ65574 ANM65546:ANM65574 AXI65546:AXI65574 BHE65546:BHE65574 BRA65546:BRA65574 CAW65546:CAW65574 CKS65546:CKS65574 CUO65546:CUO65574 DEK65546:DEK65574 DOG65546:DOG65574 DYC65546:DYC65574 EHY65546:EHY65574 ERU65546:ERU65574 FBQ65546:FBQ65574 FLM65546:FLM65574 FVI65546:FVI65574 GFE65546:GFE65574 GPA65546:GPA65574 GYW65546:GYW65574 HIS65546:HIS65574 HSO65546:HSO65574 ICK65546:ICK65574 IMG65546:IMG65574 IWC65546:IWC65574 JFY65546:JFY65574 JPU65546:JPU65574 JZQ65546:JZQ65574 KJM65546:KJM65574 KTI65546:KTI65574 LDE65546:LDE65574 LNA65546:LNA65574 LWW65546:LWW65574 MGS65546:MGS65574 MQO65546:MQO65574 NAK65546:NAK65574 NKG65546:NKG65574 NUC65546:NUC65574 ODY65546:ODY65574 ONU65546:ONU65574 OXQ65546:OXQ65574 PHM65546:PHM65574 PRI65546:PRI65574 QBE65546:QBE65574 QLA65546:QLA65574 QUW65546:QUW65574 RES65546:RES65574 ROO65546:ROO65574 RYK65546:RYK65574 SIG65546:SIG65574 SSC65546:SSC65574 TBY65546:TBY65574 TLU65546:TLU65574 TVQ65546:TVQ65574 UFM65546:UFM65574 UPI65546:UPI65574 UZE65546:UZE65574 VJA65546:VJA65574 VSW65546:VSW65574 WCS65546:WCS65574 WMO65546:WMO65574 WWK65546:WWK65574 AC131082:AC131110 JY131082:JY131110 TU131082:TU131110 ADQ131082:ADQ131110 ANM131082:ANM131110 AXI131082:AXI131110 BHE131082:BHE131110 BRA131082:BRA131110 CAW131082:CAW131110 CKS131082:CKS131110 CUO131082:CUO131110 DEK131082:DEK131110 DOG131082:DOG131110 DYC131082:DYC131110 EHY131082:EHY131110 ERU131082:ERU131110 FBQ131082:FBQ131110 FLM131082:FLM131110 FVI131082:FVI131110 GFE131082:GFE131110 GPA131082:GPA131110 GYW131082:GYW131110 HIS131082:HIS131110 HSO131082:HSO131110 ICK131082:ICK131110 IMG131082:IMG131110 IWC131082:IWC131110 JFY131082:JFY131110 JPU131082:JPU131110 JZQ131082:JZQ131110 KJM131082:KJM131110 KTI131082:KTI131110 LDE131082:LDE131110 LNA131082:LNA131110 LWW131082:LWW131110 MGS131082:MGS131110 MQO131082:MQO131110 NAK131082:NAK131110 NKG131082:NKG131110 NUC131082:NUC131110 ODY131082:ODY131110 ONU131082:ONU131110 OXQ131082:OXQ131110 PHM131082:PHM131110 PRI131082:PRI131110 QBE131082:QBE131110 QLA131082:QLA131110 QUW131082:QUW131110 RES131082:RES131110 ROO131082:ROO131110 RYK131082:RYK131110 SIG131082:SIG131110 SSC131082:SSC131110 TBY131082:TBY131110 TLU131082:TLU131110 TVQ131082:TVQ131110 UFM131082:UFM131110 UPI131082:UPI131110 UZE131082:UZE131110 VJA131082:VJA131110 VSW131082:VSW131110 WCS131082:WCS131110 WMO131082:WMO131110 WWK131082:WWK131110 AC196618:AC196646 JY196618:JY196646 TU196618:TU196646 ADQ196618:ADQ196646 ANM196618:ANM196646 AXI196618:AXI196646 BHE196618:BHE196646 BRA196618:BRA196646 CAW196618:CAW196646 CKS196618:CKS196646 CUO196618:CUO196646 DEK196618:DEK196646 DOG196618:DOG196646 DYC196618:DYC196646 EHY196618:EHY196646 ERU196618:ERU196646 FBQ196618:FBQ196646 FLM196618:FLM196646 FVI196618:FVI196646 GFE196618:GFE196646 GPA196618:GPA196646 GYW196618:GYW196646 HIS196618:HIS196646 HSO196618:HSO196646 ICK196618:ICK196646 IMG196618:IMG196646 IWC196618:IWC196646 JFY196618:JFY196646 JPU196618:JPU196646 JZQ196618:JZQ196646 KJM196618:KJM196646 KTI196618:KTI196646 LDE196618:LDE196646 LNA196618:LNA196646 LWW196618:LWW196646 MGS196618:MGS196646 MQO196618:MQO196646 NAK196618:NAK196646 NKG196618:NKG196646 NUC196618:NUC196646 ODY196618:ODY196646 ONU196618:ONU196646 OXQ196618:OXQ196646 PHM196618:PHM196646 PRI196618:PRI196646 QBE196618:QBE196646 QLA196618:QLA196646 QUW196618:QUW196646 RES196618:RES196646 ROO196618:ROO196646 RYK196618:RYK196646 SIG196618:SIG196646 SSC196618:SSC196646 TBY196618:TBY196646 TLU196618:TLU196646 TVQ196618:TVQ196646 UFM196618:UFM196646 UPI196618:UPI196646 UZE196618:UZE196646 VJA196618:VJA196646 VSW196618:VSW196646 WCS196618:WCS196646 WMO196618:WMO196646 WWK196618:WWK196646 AC262154:AC262182 JY262154:JY262182 TU262154:TU262182 ADQ262154:ADQ262182 ANM262154:ANM262182 AXI262154:AXI262182 BHE262154:BHE262182 BRA262154:BRA262182 CAW262154:CAW262182 CKS262154:CKS262182 CUO262154:CUO262182 DEK262154:DEK262182 DOG262154:DOG262182 DYC262154:DYC262182 EHY262154:EHY262182 ERU262154:ERU262182 FBQ262154:FBQ262182 FLM262154:FLM262182 FVI262154:FVI262182 GFE262154:GFE262182 GPA262154:GPA262182 GYW262154:GYW262182 HIS262154:HIS262182 HSO262154:HSO262182 ICK262154:ICK262182 IMG262154:IMG262182 IWC262154:IWC262182 JFY262154:JFY262182 JPU262154:JPU262182 JZQ262154:JZQ262182 KJM262154:KJM262182 KTI262154:KTI262182 LDE262154:LDE262182 LNA262154:LNA262182 LWW262154:LWW262182 MGS262154:MGS262182 MQO262154:MQO262182 NAK262154:NAK262182 NKG262154:NKG262182 NUC262154:NUC262182 ODY262154:ODY262182 ONU262154:ONU262182 OXQ262154:OXQ262182 PHM262154:PHM262182 PRI262154:PRI262182 QBE262154:QBE262182 QLA262154:QLA262182 QUW262154:QUW262182 RES262154:RES262182 ROO262154:ROO262182 RYK262154:RYK262182 SIG262154:SIG262182 SSC262154:SSC262182 TBY262154:TBY262182 TLU262154:TLU262182 TVQ262154:TVQ262182 UFM262154:UFM262182 UPI262154:UPI262182 UZE262154:UZE262182 VJA262154:VJA262182 VSW262154:VSW262182 WCS262154:WCS262182 WMO262154:WMO262182 WWK262154:WWK262182 AC327690:AC327718 JY327690:JY327718 TU327690:TU327718 ADQ327690:ADQ327718 ANM327690:ANM327718 AXI327690:AXI327718 BHE327690:BHE327718 BRA327690:BRA327718 CAW327690:CAW327718 CKS327690:CKS327718 CUO327690:CUO327718 DEK327690:DEK327718 DOG327690:DOG327718 DYC327690:DYC327718 EHY327690:EHY327718 ERU327690:ERU327718 FBQ327690:FBQ327718 FLM327690:FLM327718 FVI327690:FVI327718 GFE327690:GFE327718 GPA327690:GPA327718 GYW327690:GYW327718 HIS327690:HIS327718 HSO327690:HSO327718 ICK327690:ICK327718 IMG327690:IMG327718 IWC327690:IWC327718 JFY327690:JFY327718 JPU327690:JPU327718 JZQ327690:JZQ327718 KJM327690:KJM327718 KTI327690:KTI327718 LDE327690:LDE327718 LNA327690:LNA327718 LWW327690:LWW327718 MGS327690:MGS327718 MQO327690:MQO327718 NAK327690:NAK327718 NKG327690:NKG327718 NUC327690:NUC327718 ODY327690:ODY327718 ONU327690:ONU327718 OXQ327690:OXQ327718 PHM327690:PHM327718 PRI327690:PRI327718 QBE327690:QBE327718 QLA327690:QLA327718 QUW327690:QUW327718 RES327690:RES327718 ROO327690:ROO327718 RYK327690:RYK327718 SIG327690:SIG327718 SSC327690:SSC327718 TBY327690:TBY327718 TLU327690:TLU327718 TVQ327690:TVQ327718 UFM327690:UFM327718 UPI327690:UPI327718 UZE327690:UZE327718 VJA327690:VJA327718 VSW327690:VSW327718 WCS327690:WCS327718 WMO327690:WMO327718 WWK327690:WWK327718 AC393226:AC393254 JY393226:JY393254 TU393226:TU393254 ADQ393226:ADQ393254 ANM393226:ANM393254 AXI393226:AXI393254 BHE393226:BHE393254 BRA393226:BRA393254 CAW393226:CAW393254 CKS393226:CKS393254 CUO393226:CUO393254 DEK393226:DEK393254 DOG393226:DOG393254 DYC393226:DYC393254 EHY393226:EHY393254 ERU393226:ERU393254 FBQ393226:FBQ393254 FLM393226:FLM393254 FVI393226:FVI393254 GFE393226:GFE393254 GPA393226:GPA393254 GYW393226:GYW393254 HIS393226:HIS393254 HSO393226:HSO393254 ICK393226:ICK393254 IMG393226:IMG393254 IWC393226:IWC393254 JFY393226:JFY393254 JPU393226:JPU393254 JZQ393226:JZQ393254 KJM393226:KJM393254 KTI393226:KTI393254 LDE393226:LDE393254 LNA393226:LNA393254 LWW393226:LWW393254 MGS393226:MGS393254 MQO393226:MQO393254 NAK393226:NAK393254 NKG393226:NKG393254 NUC393226:NUC393254 ODY393226:ODY393254 ONU393226:ONU393254 OXQ393226:OXQ393254 PHM393226:PHM393254 PRI393226:PRI393254 QBE393226:QBE393254 QLA393226:QLA393254 QUW393226:QUW393254 RES393226:RES393254 ROO393226:ROO393254 RYK393226:RYK393254 SIG393226:SIG393254 SSC393226:SSC393254 TBY393226:TBY393254 TLU393226:TLU393254 TVQ393226:TVQ393254 UFM393226:UFM393254 UPI393226:UPI393254 UZE393226:UZE393254 VJA393226:VJA393254 VSW393226:VSW393254 WCS393226:WCS393254 WMO393226:WMO393254 WWK393226:WWK393254 AC458762:AC458790 JY458762:JY458790 TU458762:TU458790 ADQ458762:ADQ458790 ANM458762:ANM458790 AXI458762:AXI458790 BHE458762:BHE458790 BRA458762:BRA458790 CAW458762:CAW458790 CKS458762:CKS458790 CUO458762:CUO458790 DEK458762:DEK458790 DOG458762:DOG458790 DYC458762:DYC458790 EHY458762:EHY458790 ERU458762:ERU458790 FBQ458762:FBQ458790 FLM458762:FLM458790 FVI458762:FVI458790 GFE458762:GFE458790 GPA458762:GPA458790 GYW458762:GYW458790 HIS458762:HIS458790 HSO458762:HSO458790 ICK458762:ICK458790 IMG458762:IMG458790 IWC458762:IWC458790 JFY458762:JFY458790 JPU458762:JPU458790 JZQ458762:JZQ458790 KJM458762:KJM458790 KTI458762:KTI458790 LDE458762:LDE458790 LNA458762:LNA458790 LWW458762:LWW458790 MGS458762:MGS458790 MQO458762:MQO458790 NAK458762:NAK458790 NKG458762:NKG458790 NUC458762:NUC458790 ODY458762:ODY458790 ONU458762:ONU458790 OXQ458762:OXQ458790 PHM458762:PHM458790 PRI458762:PRI458790 QBE458762:QBE458790 QLA458762:QLA458790 QUW458762:QUW458790 RES458762:RES458790 ROO458762:ROO458790 RYK458762:RYK458790 SIG458762:SIG458790 SSC458762:SSC458790 TBY458762:TBY458790 TLU458762:TLU458790 TVQ458762:TVQ458790 UFM458762:UFM458790 UPI458762:UPI458790 UZE458762:UZE458790 VJA458762:VJA458790 VSW458762:VSW458790 WCS458762:WCS458790 WMO458762:WMO458790 WWK458762:WWK458790 AC524298:AC524326 JY524298:JY524326 TU524298:TU524326 ADQ524298:ADQ524326 ANM524298:ANM524326 AXI524298:AXI524326 BHE524298:BHE524326 BRA524298:BRA524326 CAW524298:CAW524326 CKS524298:CKS524326 CUO524298:CUO524326 DEK524298:DEK524326 DOG524298:DOG524326 DYC524298:DYC524326 EHY524298:EHY524326 ERU524298:ERU524326 FBQ524298:FBQ524326 FLM524298:FLM524326 FVI524298:FVI524326 GFE524298:GFE524326 GPA524298:GPA524326 GYW524298:GYW524326 HIS524298:HIS524326 HSO524298:HSO524326 ICK524298:ICK524326 IMG524298:IMG524326 IWC524298:IWC524326 JFY524298:JFY524326 JPU524298:JPU524326 JZQ524298:JZQ524326 KJM524298:KJM524326 KTI524298:KTI524326 LDE524298:LDE524326 LNA524298:LNA524326 LWW524298:LWW524326 MGS524298:MGS524326 MQO524298:MQO524326 NAK524298:NAK524326 NKG524298:NKG524326 NUC524298:NUC524326 ODY524298:ODY524326 ONU524298:ONU524326 OXQ524298:OXQ524326 PHM524298:PHM524326 PRI524298:PRI524326 QBE524298:QBE524326 QLA524298:QLA524326 QUW524298:QUW524326 RES524298:RES524326 ROO524298:ROO524326 RYK524298:RYK524326 SIG524298:SIG524326 SSC524298:SSC524326 TBY524298:TBY524326 TLU524298:TLU524326 TVQ524298:TVQ524326 UFM524298:UFM524326 UPI524298:UPI524326 UZE524298:UZE524326 VJA524298:VJA524326 VSW524298:VSW524326 WCS524298:WCS524326 WMO524298:WMO524326 WWK524298:WWK524326 AC589834:AC589862 JY589834:JY589862 TU589834:TU589862 ADQ589834:ADQ589862 ANM589834:ANM589862 AXI589834:AXI589862 BHE589834:BHE589862 BRA589834:BRA589862 CAW589834:CAW589862 CKS589834:CKS589862 CUO589834:CUO589862 DEK589834:DEK589862 DOG589834:DOG589862 DYC589834:DYC589862 EHY589834:EHY589862 ERU589834:ERU589862 FBQ589834:FBQ589862 FLM589834:FLM589862 FVI589834:FVI589862 GFE589834:GFE589862 GPA589834:GPA589862 GYW589834:GYW589862 HIS589834:HIS589862 HSO589834:HSO589862 ICK589834:ICK589862 IMG589834:IMG589862 IWC589834:IWC589862 JFY589834:JFY589862 JPU589834:JPU589862 JZQ589834:JZQ589862 KJM589834:KJM589862 KTI589834:KTI589862 LDE589834:LDE589862 LNA589834:LNA589862 LWW589834:LWW589862 MGS589834:MGS589862 MQO589834:MQO589862 NAK589834:NAK589862 NKG589834:NKG589862 NUC589834:NUC589862 ODY589834:ODY589862 ONU589834:ONU589862 OXQ589834:OXQ589862 PHM589834:PHM589862 PRI589834:PRI589862 QBE589834:QBE589862 QLA589834:QLA589862 QUW589834:QUW589862 RES589834:RES589862 ROO589834:ROO589862 RYK589834:RYK589862 SIG589834:SIG589862 SSC589834:SSC589862 TBY589834:TBY589862 TLU589834:TLU589862 TVQ589834:TVQ589862 UFM589834:UFM589862 UPI589834:UPI589862 UZE589834:UZE589862 VJA589834:VJA589862 VSW589834:VSW589862 WCS589834:WCS589862 WMO589834:WMO589862 WWK589834:WWK589862 AC655370:AC655398 JY655370:JY655398 TU655370:TU655398 ADQ655370:ADQ655398 ANM655370:ANM655398 AXI655370:AXI655398 BHE655370:BHE655398 BRA655370:BRA655398 CAW655370:CAW655398 CKS655370:CKS655398 CUO655370:CUO655398 DEK655370:DEK655398 DOG655370:DOG655398 DYC655370:DYC655398 EHY655370:EHY655398 ERU655370:ERU655398 FBQ655370:FBQ655398 FLM655370:FLM655398 FVI655370:FVI655398 GFE655370:GFE655398 GPA655370:GPA655398 GYW655370:GYW655398 HIS655370:HIS655398 HSO655370:HSO655398 ICK655370:ICK655398 IMG655370:IMG655398 IWC655370:IWC655398 JFY655370:JFY655398 JPU655370:JPU655398 JZQ655370:JZQ655398 KJM655370:KJM655398 KTI655370:KTI655398 LDE655370:LDE655398 LNA655370:LNA655398 LWW655370:LWW655398 MGS655370:MGS655398 MQO655370:MQO655398 NAK655370:NAK655398 NKG655370:NKG655398 NUC655370:NUC655398 ODY655370:ODY655398 ONU655370:ONU655398 OXQ655370:OXQ655398 PHM655370:PHM655398 PRI655370:PRI655398 QBE655370:QBE655398 QLA655370:QLA655398 QUW655370:QUW655398 RES655370:RES655398 ROO655370:ROO655398 RYK655370:RYK655398 SIG655370:SIG655398 SSC655370:SSC655398 TBY655370:TBY655398 TLU655370:TLU655398 TVQ655370:TVQ655398 UFM655370:UFM655398 UPI655370:UPI655398 UZE655370:UZE655398 VJA655370:VJA655398 VSW655370:VSW655398 WCS655370:WCS655398 WMO655370:WMO655398 WWK655370:WWK655398 AC720906:AC720934 JY720906:JY720934 TU720906:TU720934 ADQ720906:ADQ720934 ANM720906:ANM720934 AXI720906:AXI720934 BHE720906:BHE720934 BRA720906:BRA720934 CAW720906:CAW720934 CKS720906:CKS720934 CUO720906:CUO720934 DEK720906:DEK720934 DOG720906:DOG720934 DYC720906:DYC720934 EHY720906:EHY720934 ERU720906:ERU720934 FBQ720906:FBQ720934 FLM720906:FLM720934 FVI720906:FVI720934 GFE720906:GFE720934 GPA720906:GPA720934 GYW720906:GYW720934 HIS720906:HIS720934 HSO720906:HSO720934 ICK720906:ICK720934 IMG720906:IMG720934 IWC720906:IWC720934 JFY720906:JFY720934 JPU720906:JPU720934 JZQ720906:JZQ720934 KJM720906:KJM720934 KTI720906:KTI720934 LDE720906:LDE720934 LNA720906:LNA720934 LWW720906:LWW720934 MGS720906:MGS720934 MQO720906:MQO720934 NAK720906:NAK720934 NKG720906:NKG720934 NUC720906:NUC720934 ODY720906:ODY720934 ONU720906:ONU720934 OXQ720906:OXQ720934 PHM720906:PHM720934 PRI720906:PRI720934 QBE720906:QBE720934 QLA720906:QLA720934 QUW720906:QUW720934 RES720906:RES720934 ROO720906:ROO720934 RYK720906:RYK720934 SIG720906:SIG720934 SSC720906:SSC720934 TBY720906:TBY720934 TLU720906:TLU720934 TVQ720906:TVQ720934 UFM720906:UFM720934 UPI720906:UPI720934 UZE720906:UZE720934 VJA720906:VJA720934 VSW720906:VSW720934 WCS720906:WCS720934 WMO720906:WMO720934 WWK720906:WWK720934 AC786442:AC786470 JY786442:JY786470 TU786442:TU786470 ADQ786442:ADQ786470 ANM786442:ANM786470 AXI786442:AXI786470 BHE786442:BHE786470 BRA786442:BRA786470 CAW786442:CAW786470 CKS786442:CKS786470 CUO786442:CUO786470 DEK786442:DEK786470 DOG786442:DOG786470 DYC786442:DYC786470 EHY786442:EHY786470 ERU786442:ERU786470 FBQ786442:FBQ786470 FLM786442:FLM786470 FVI786442:FVI786470 GFE786442:GFE786470 GPA786442:GPA786470 GYW786442:GYW786470 HIS786442:HIS786470 HSO786442:HSO786470 ICK786442:ICK786470 IMG786442:IMG786470 IWC786442:IWC786470 JFY786442:JFY786470 JPU786442:JPU786470 JZQ786442:JZQ786470 KJM786442:KJM786470 KTI786442:KTI786470 LDE786442:LDE786470 LNA786442:LNA786470 LWW786442:LWW786470 MGS786442:MGS786470 MQO786442:MQO786470 NAK786442:NAK786470 NKG786442:NKG786470 NUC786442:NUC786470 ODY786442:ODY786470 ONU786442:ONU786470 OXQ786442:OXQ786470 PHM786442:PHM786470 PRI786442:PRI786470 QBE786442:QBE786470 QLA786442:QLA786470 QUW786442:QUW786470 RES786442:RES786470 ROO786442:ROO786470 RYK786442:RYK786470 SIG786442:SIG786470 SSC786442:SSC786470 TBY786442:TBY786470 TLU786442:TLU786470 TVQ786442:TVQ786470 UFM786442:UFM786470 UPI786442:UPI786470 UZE786442:UZE786470 VJA786442:VJA786470 VSW786442:VSW786470 WCS786442:WCS786470 WMO786442:WMO786470 WWK786442:WWK786470 AC851978:AC852006 JY851978:JY852006 TU851978:TU852006 ADQ851978:ADQ852006 ANM851978:ANM852006 AXI851978:AXI852006 BHE851978:BHE852006 BRA851978:BRA852006 CAW851978:CAW852006 CKS851978:CKS852006 CUO851978:CUO852006 DEK851978:DEK852006 DOG851978:DOG852006 DYC851978:DYC852006 EHY851978:EHY852006 ERU851978:ERU852006 FBQ851978:FBQ852006 FLM851978:FLM852006 FVI851978:FVI852006 GFE851978:GFE852006 GPA851978:GPA852006 GYW851978:GYW852006 HIS851978:HIS852006 HSO851978:HSO852006 ICK851978:ICK852006 IMG851978:IMG852006 IWC851978:IWC852006 JFY851978:JFY852006 JPU851978:JPU852006 JZQ851978:JZQ852006 KJM851978:KJM852006 KTI851978:KTI852006 LDE851978:LDE852006 LNA851978:LNA852006 LWW851978:LWW852006 MGS851978:MGS852006 MQO851978:MQO852006 NAK851978:NAK852006 NKG851978:NKG852006 NUC851978:NUC852006 ODY851978:ODY852006 ONU851978:ONU852006 OXQ851978:OXQ852006 PHM851978:PHM852006 PRI851978:PRI852006 QBE851978:QBE852006 QLA851978:QLA852006 QUW851978:QUW852006 RES851978:RES852006 ROO851978:ROO852006 RYK851978:RYK852006 SIG851978:SIG852006 SSC851978:SSC852006 TBY851978:TBY852006 TLU851978:TLU852006 TVQ851978:TVQ852006 UFM851978:UFM852006 UPI851978:UPI852006 UZE851978:UZE852006 VJA851978:VJA852006 VSW851978:VSW852006 WCS851978:WCS852006 WMO851978:WMO852006 WWK851978:WWK852006 AC917514:AC917542 JY917514:JY917542 TU917514:TU917542 ADQ917514:ADQ917542 ANM917514:ANM917542 AXI917514:AXI917542 BHE917514:BHE917542 BRA917514:BRA917542 CAW917514:CAW917542 CKS917514:CKS917542 CUO917514:CUO917542 DEK917514:DEK917542 DOG917514:DOG917542 DYC917514:DYC917542 EHY917514:EHY917542 ERU917514:ERU917542 FBQ917514:FBQ917542 FLM917514:FLM917542 FVI917514:FVI917542 GFE917514:GFE917542 GPA917514:GPA917542 GYW917514:GYW917542 HIS917514:HIS917542 HSO917514:HSO917542 ICK917514:ICK917542 IMG917514:IMG917542 IWC917514:IWC917542 JFY917514:JFY917542 JPU917514:JPU917542 JZQ917514:JZQ917542 KJM917514:KJM917542 KTI917514:KTI917542 LDE917514:LDE917542 LNA917514:LNA917542 LWW917514:LWW917542 MGS917514:MGS917542 MQO917514:MQO917542 NAK917514:NAK917542 NKG917514:NKG917542 NUC917514:NUC917542 ODY917514:ODY917542 ONU917514:ONU917542 OXQ917514:OXQ917542 PHM917514:PHM917542 PRI917514:PRI917542 QBE917514:QBE917542 QLA917514:QLA917542 QUW917514:QUW917542 RES917514:RES917542 ROO917514:ROO917542 RYK917514:RYK917542 SIG917514:SIG917542 SSC917514:SSC917542 TBY917514:TBY917542 TLU917514:TLU917542 TVQ917514:TVQ917542 UFM917514:UFM917542 UPI917514:UPI917542 UZE917514:UZE917542 VJA917514:VJA917542 VSW917514:VSW917542 WCS917514:WCS917542 WMO917514:WMO917542 WWK917514:WWK917542 AC983050:AC983078 JY983050:JY983078 TU983050:TU983078 ADQ983050:ADQ983078 ANM983050:ANM983078 AXI983050:AXI983078 BHE983050:BHE983078 BRA983050:BRA983078 CAW983050:CAW983078 CKS983050:CKS983078 CUO983050:CUO983078 DEK983050:DEK983078 DOG983050:DOG983078 DYC983050:DYC983078 EHY983050:EHY983078 ERU983050:ERU983078 FBQ983050:FBQ983078 FLM983050:FLM983078 FVI983050:FVI983078 GFE983050:GFE983078 GPA983050:GPA983078 GYW983050:GYW983078 HIS983050:HIS983078 HSO983050:HSO983078 ICK983050:ICK983078 IMG983050:IMG983078 IWC983050:IWC983078 JFY983050:JFY983078 JPU983050:JPU983078 JZQ983050:JZQ983078 KJM983050:KJM983078 KTI983050:KTI983078 LDE983050:LDE983078 LNA983050:LNA983078 LWW983050:LWW983078 MGS983050:MGS983078 MQO983050:MQO983078 NAK983050:NAK983078 NKG983050:NKG983078 NUC983050:NUC983078 ODY983050:ODY983078 ONU983050:ONU983078 OXQ983050:OXQ983078 PHM983050:PHM983078 PRI983050:PRI983078 QBE983050:QBE983078 QLA983050:QLA983078 QUW983050:QUW983078 RES983050:RES983078 ROO983050:ROO983078 RYK983050:RYK983078 SIG983050:SIG983078 SSC983050:SSC983078 TBY983050:TBY983078 TLU983050:TLU983078 TVQ983050:TVQ983078 UFM983050:UFM983078 UPI983050:UPI983078 UZE983050:UZE983078 VJA983050:VJA983078 VSW983050:VSW983078 WCS983050:WCS983078 WMO983050:WMO983078 WWK983050:WWK983078">
